--- a/A2 Report/Results.xlsx
+++ b/A2 Report/Results.xlsx
@@ -146,8 +146,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>D Title</a:t>
+              <a:t>Descending</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Order Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -183,7 +188,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13565050504108611"/>
+          <c:y val="0.12979790562745805"/>
+          <c:w val="0.83434698598425394"/>
+          <c:h val="0.60124323067118157"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -247,25 +262,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.3759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.40350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>4.1452999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.1147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>72.572299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,25 +347,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4.4156000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>8.7376000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179</c:v>
+                  <c:v>199.0831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,25 +432,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.8400000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.1255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.51910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.40939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1.4769000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,25 +517,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.0800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.9900000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.19270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.13089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0.85719999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,8 +551,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="439596128"/>
-        <c:axId val="439594560"/>
+        <c:axId val="251653752"/>
+        <c:axId val="251658064"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -643,13 +658,43 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="439596128"/>
+        <c:axId val="251653752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -717,7 +762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439594560"/>
+        <c:crossAx val="251658064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439594560"/>
+        <c:axId val="251658064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,6 +791,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Miliseconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> to Complete</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -807,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439596128"/>
+        <c:crossAx val="251653752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -922,9 +997,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>A Title</a:t>
+              <a:rPr lang="en-AU" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ascending Order Graph</a:t>
             </a:r>
+            <a:endParaRPr lang="en-AU" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -960,7 +1040,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13367053032339166"/>
+          <c:y val="0.13271247599940372"/>
+          <c:w val="0.83676477123864867"/>
+          <c:h val="0.6014135430717531"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1024,25 +1114,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.66879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.39610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.72519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5.3929999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>10.203200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149</c:v>
+                  <c:v>119.1348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,25 +1199,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.0999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.86E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.0800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.4758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,25 +1284,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.0399999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.61850000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.35930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.4167000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,25 +1369,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.28129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.12939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.77869999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,8 +1403,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="443903592"/>
-        <c:axId val="443907512"/>
+        <c:axId val="251652576"/>
+        <c:axId val="251652968"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1420,12 +1510,73 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443903592"/>
+        <c:axId val="251652576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1463,7 +1614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443907512"/>
+        <c:crossAx val="251652968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1471,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443907512"/>
+        <c:axId val="251652968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,6 +1642,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Miliseconds to Complete</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1522,7 +1734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443903592"/>
+        <c:crossAx val="251652576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,8 +1850,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>U Title</a:t>
+              <a:t>Unsorted</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Order Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1680,10 +1897,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9247594050743664E-2"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.61498432487605714"/>
+          <c:x val="0.14235400561659492"/>
+          <c:y val="0.14392108972170425"/>
+          <c:w val="0.82709016725046436"/>
+          <c:h val="0.59615840974094736"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1749,25 +1966,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.1087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.3400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.30890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.87490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4.7579000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.1673</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88</c:v>
+                  <c:v>73.805999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1834,25 +2051,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.9999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.54E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.27429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3.7151000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>73.388199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,25 +2136,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.47E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.1499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.13089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.28899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.50760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,25 +2221,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.3400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.2399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.0900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.36299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.15049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2.0337000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,8 +2255,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="443905944"/>
-        <c:axId val="443910256"/>
+        <c:axId val="251655320"/>
+        <c:axId val="251654144"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2145,12 +2362,73 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443905944"/>
+        <c:axId val="251655320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> of Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2188,7 +2466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443910256"/>
+        <c:crossAx val="251654144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443910256"/>
+        <c:axId val="251654144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,6 +2494,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Miliseconds to Complete</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2247,7 +2586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443905944"/>
+        <c:crossAx val="251655320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4000,16 +4339,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>13667</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179319</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>607554</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88185</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4030,16 +4369,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1329358</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>189671</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>186357</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>604630</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>173935</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4060,16 +4399,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1329358</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165651</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>604629</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>83654</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4356,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="G21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,6 +4704,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4401,25 +4741,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1192</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.40350000000000003</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>4.1452999999999998</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.1147</v>
       </c>
       <c r="H2">
-        <v>91</v>
+        <v>72.572299999999998</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4427,25 +4767,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1183</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.314</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4.4156000000000004</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>8.7376000000000005</v>
       </c>
       <c r="H3">
-        <v>179</v>
+        <v>199.0831</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4453,25 +4793,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1255</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.51910000000000001</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1.4769000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4479,25 +4819,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.19270000000000001</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0.85719999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4534,25 +4874,25 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.39610000000000001</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.72519999999999996</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5.3929999999999998</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>10.203200000000001</v>
       </c>
       <c r="H9">
-        <v>149</v>
+        <v>119.1348</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4560,25 +4900,25 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.86E-2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.4758</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4586,25 +4926,25 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.61850000000000005</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.35930000000000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>2.4167000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4612,25 +4952,25 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4.3E-3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.28129999999999999</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.77869999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4667,25 +5007,25 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.1087</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.30890000000000001</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.87490000000000001</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4.7579000000000002</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>5.1673</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>73.805999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4693,25 +5033,25 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.54E-2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.27429999999999999</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3.7151000000000001</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>73.388199999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4719,25 +5059,25 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.47E-2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.50760000000000005</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>2.0947</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4745,25 +5085,25 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.15049999999999999</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2.0337000000000001</v>
       </c>
     </row>
   </sheetData>
